--- a/doc/Burndown_Charts/Sprint 4 Burndown.xlsx
+++ b/doc/Burndown_Charts/Sprint 4 Burndown.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CowUser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\IFB299 Artifacts\Release 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,78 +24,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
   <si>
+    <t>Day 0</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
     <t>Day 10</t>
   </si>
   <si>
-    <t>Day 9</t>
-  </si>
-  <si>
-    <t>Day 8</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
     <t>Ideal Estimated Remaining Hours</t>
   </si>
   <si>
     <t>Actual Estimated Remaining Hours</t>
   </si>
   <si>
-    <t>Day 0</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T31</t>
-  </si>
-  <si>
-    <t>T32</t>
-  </si>
-  <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>T34</t>
-  </si>
-  <si>
-    <t>T35</t>
-  </si>
-  <si>
-    <t>T36</t>
-  </si>
-  <si>
-    <t>T37</t>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>T53</t>
   </si>
 </sst>
 </file>
@@ -119,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -134,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,25 +193,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +241,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 4 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -268,6 +305,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -282,39 +330,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$L$14</c:f>
+              <c:f>Sheet1!$B$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0999999999999979</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.799999999999998</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4999999999999982</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1999999999999984</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8999999999999986</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5999999999999988</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2999999999999987</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -327,6 +375,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -341,18 +400,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$L$15</c:f>
+              <c:f>Sheet1!$B$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.75</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,16 +451,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434179456"/>
-        <c:axId val="166518384"/>
+        <c:axId val="195362840"/>
+        <c:axId val="195362448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434179456"/>
+        <c:axId val="195362840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sprint Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -414,7 +553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166518384"/>
+        <c:crossAx val="195362448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166518384"/>
+        <c:axId val="195362448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,6 +581,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Effort Remainin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t>g (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -473,9 +673,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434179456"/>
+        <c:crossAx val="195362840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1115,19 +1317,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>340178</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79771</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1188,7 +1390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,7 +1425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,118 +1610,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="4">
-        <v>42646</v>
-      </c>
-      <c r="D1" s="4">
-        <v>42647</v>
-      </c>
-      <c r="E1" s="4">
-        <v>42648</v>
-      </c>
-      <c r="F1" s="4">
-        <v>42649</v>
-      </c>
-      <c r="G1" s="4">
-        <v>42650</v>
-      </c>
-      <c r="H1" s="4">
-        <v>42653</v>
-      </c>
-      <c r="I1" s="4">
-        <v>42654</v>
-      </c>
-      <c r="J1" s="4">
-        <v>42655</v>
-      </c>
-      <c r="K1" s="4">
-        <v>42656</v>
-      </c>
-      <c r="L1" s="4">
-        <v>42657</v>
+      <c r="C1" s="2">
+        <v>42660</v>
+      </c>
+      <c r="D1" s="2">
+        <v>42661</v>
+      </c>
+      <c r="E1" s="2">
+        <v>42662</v>
+      </c>
+      <c r="F1" s="2">
+        <v>42663</v>
+      </c>
+      <c r="G1" s="2">
+        <v>42664</v>
+      </c>
+      <c r="H1" s="2">
+        <v>42667</v>
+      </c>
+      <c r="I1" s="2">
+        <v>42668</v>
+      </c>
+      <c r="J1" s="2">
+        <v>42669</v>
+      </c>
+      <c r="K1" s="2">
+        <v>42670</v>
+      </c>
+      <c r="L1" s="2">
+        <v>42671</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>0.5</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="8">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
+      <c r="B4" s="4">
+        <v>0.5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="8">
+        <v>0.25</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1527,51 +1733,55 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="4">
+        <v>0.5</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="8">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
+      <c r="B6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="8">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1583,16 +1793,18 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1603,11 +1815,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3">
-        <v>3</v>
+      <c r="B9" s="4">
+        <v>0.5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1615,21 +1827,25 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="8">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1639,16 +1855,18 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1658,10 +1876,10 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>0.5</v>
       </c>
       <c r="C12" s="5"/>
@@ -1670,127 +1888,171 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="8">
+        <v>0.5</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(B17-1)</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:L17" si="0">SUM(C17-1)</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
-        <f>SUM(B14-1.3)</f>
-        <v>11.7</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:L14" si="0">SUM(C14-1.3)</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999979</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>7.799999999999998</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999982</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999984</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8999999999999986</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999988</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999987</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="B18" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18-SUM(C3:C15)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:L18" si="1">C18-SUM(D3:D15)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-C6-C8</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <f>C15-D11</f>
-        <v>9.75</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Burndown_Charts/Sprint 4 Burndown.xlsx
+++ b/doc/Burndown_Charts/Sprint 4 Burndown.xlsx
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,7 +202,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,31 +401,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -451,11 +444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195362840"/>
-        <c:axId val="195362448"/>
+        <c:axId val="211811848"/>
+        <c:axId val="211812240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195362840"/>
+        <c:axId val="211811848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195362448"/>
+        <c:crossAx val="211812240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,9 +554,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195362448"/>
+        <c:axId val="211812240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -602,11 +596,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Effort Remainin</a:t>
+                  <a:t>Effor</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t>g (hours)</a:t>
+                  <a:t>t Remaning (hours)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -673,11 +667,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195362840"/>
+        <c:crossAx val="211811848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1316,20 +1308,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514805</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1612,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,34 +1616,34 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2">
+        <v>42655</v>
+      </c>
+      <c r="D1" s="2">
+        <v>42656</v>
+      </c>
+      <c r="E1" s="2">
+        <v>42657</v>
+      </c>
+      <c r="F1" s="2">
         <v>42660</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>42661</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>42662</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>42663</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>42664</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>42667</v>
       </c>
-      <c r="I1" s="2">
+      <c r="L1" s="2">
         <v>42668</v>
-      </c>
-      <c r="J1" s="2">
-        <v>42669</v>
-      </c>
-      <c r="K1" s="2">
-        <v>42670</v>
-      </c>
-      <c r="L1" s="2">
-        <v>42671</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1704,12 +1696,12 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>0.5</v>
+      </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,13 +1715,13 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>0.25</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>0.25</v>
+      </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1744,13 +1736,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1765,12 +1757,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1779,12 +1771,12 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1799,14 +1791,12 @@
       <c r="B8" s="4">
         <v>0.5</v>
       </c>
-      <c r="C8" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>0.5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1827,12 +1817,12 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1843,12 +1833,12 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1861,15 +1851,14 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1888,12 +1877,12 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1902,12 +1891,12 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1922,14 +1911,12 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1950,12 +1937,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -2016,36 +2003,39 @@
       </c>
       <c r="C18" s="7">
         <f>B18-SUM(C3:C15)</f>
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ref="D18:L18" si="1">C18-SUM(D3:D15)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.25</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
